--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2555056.655569847</v>
+        <v>-2557670.934186299</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>57.1726708572746</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>61.63087976473516</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>411.2146126744141</v>
@@ -677,7 +677,7 @@
         <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851262</v>
+        <v>52.86845664851259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783174</v>
+        <v>115.8619247783173</v>
       </c>
       <c r="T2" t="n">
         <v>205.2000830738755</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.1561775373476</v>
       </c>
       <c r="H3" t="n">
-        <v>91.1103483761872</v>
+        <v>91.11034837618719</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674308</v>
+        <v>14.08691327674306</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>76.94148650461499</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>100.3033462869334</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792919</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>190.7932929835056</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2190043347733</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>240.6222798758675</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>332.654366580009</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>64.70670109160021</v>
       </c>
       <c r="T7" t="n">
-        <v>139.3110404717336</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>22.05816311386935</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4.416820816807195</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>23.53778113208449</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>13.76895302529382</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701353</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016438</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>77.3950726440262</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.404873121236</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>67.60860312451636</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>73.2399738065247</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012207</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892437</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>214.0647808588583</v>
+        <v>147.6895341487362</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079702</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352486</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652547</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2004.023742724257</v>
+        <v>1630.557984463178</v>
       </c>
       <c r="C2" t="n">
-        <v>1635.061225783845</v>
+        <v>1572.807811880072</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.795527177094</v>
+        <v>1214.542113273321</v>
       </c>
       <c r="E2" t="n">
-        <v>891.00727457885</v>
+        <v>828.753860675077</v>
       </c>
       <c r="F2" t="n">
-        <v>828.7538606750769</v>
+        <v>828.753860675077</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3855650443555</v>
+        <v>413.3855650443556</v>
       </c>
       <c r="H2" t="n">
-        <v>112.7721371749272</v>
+        <v>112.7721371749273</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178316</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734989</v>
+        <v>223.6389510734998</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447431</v>
+        <v>520.574560644744</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185013</v>
+        <v>925.8512030185026</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552356</v>
+        <v>1408.468993552357</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877247</v>
+        <v>1903.509852877249</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384225</v>
+        <v>2357.627637384227</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215711</v>
+        <v>2710.705659215712</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719473</v>
+        <v>2927.679802719474</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589158</v>
+        <v>2968.482785589159</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338332</v>
+        <v>2851.450538338333</v>
       </c>
       <c r="T2" t="n">
-        <v>2644.177727152599</v>
+        <v>2644.177727152601</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788378</v>
+        <v>2390.623582788379</v>
       </c>
       <c r="V2" t="n">
-        <v>2390.623582788378</v>
+        <v>2390.623582788379</v>
       </c>
       <c r="W2" t="n">
-        <v>2390.623582788378</v>
+        <v>2390.623582788379</v>
       </c>
       <c r="X2" t="n">
-        <v>2390.623582788378</v>
+        <v>2017.157824527299</v>
       </c>
       <c r="Y2" t="n">
-        <v>2390.623582788378</v>
+        <v>2017.157824527299</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1341.528820902746</v>
+        <v>931.3103593400832</v>
       </c>
       <c r="C3" t="n">
-        <v>1167.075791621619</v>
+        <v>756.8573300589562</v>
       </c>
       <c r="D3" t="n">
-        <v>1018.141381960367</v>
+        <v>607.922920397705</v>
       </c>
       <c r="E3" t="n">
-        <v>858.9039269549119</v>
+        <v>448.6854653922495</v>
       </c>
       <c r="F3" t="n">
-        <v>712.3693689817968</v>
+        <v>302.1509074191345</v>
       </c>
       <c r="G3" t="n">
-        <v>575.8479775299306</v>
+        <v>165.6295159672683</v>
       </c>
       <c r="H3" t="n">
-        <v>483.817322604489</v>
+        <v>73.59886104182668</v>
       </c>
       <c r="I3" t="n">
-        <v>469.5881172744455</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="J3" t="n">
-        <v>548.6079372775575</v>
+        <v>138.3894757148952</v>
       </c>
       <c r="K3" t="n">
-        <v>761.8202204795525</v>
+        <v>591.3495759479367</v>
       </c>
       <c r="L3" t="n">
-        <v>1094.832988429795</v>
+        <v>924.3623438981792</v>
       </c>
       <c r="M3" t="n">
-        <v>1502.800049602476</v>
+        <v>1332.329405070861</v>
       </c>
       <c r="N3" t="n">
-        <v>1935.973429856268</v>
+        <v>1765.502785324652</v>
       </c>
       <c r="O3" t="n">
-        <v>2310.022650300798</v>
+        <v>2139.552005769182</v>
       </c>
       <c r="P3" t="n">
-        <v>2590.897060226043</v>
+        <v>2420.426415694429</v>
       </c>
       <c r="Q3" t="n">
-        <v>2936.711483416601</v>
+        <v>2558.264324026496</v>
       </c>
       <c r="R3" t="n">
-        <v>2968.482785589158</v>
+        <v>2558.264324026496</v>
       </c>
       <c r="S3" t="n">
-        <v>2836.104707899344</v>
+        <v>2425.886246336681</v>
       </c>
       <c r="T3" t="n">
-        <v>2642.823682619124</v>
+        <v>2232.605221056462</v>
       </c>
       <c r="U3" t="n">
-        <v>2414.745421853245</v>
+        <v>2004.526960290582</v>
       </c>
       <c r="V3" t="n">
-        <v>2179.593313621502</v>
+        <v>1769.374852058839</v>
       </c>
       <c r="W3" t="n">
-        <v>1925.355956893301</v>
+        <v>1515.137495330638</v>
       </c>
       <c r="X3" t="n">
-        <v>1717.504456687768</v>
+        <v>1307.285995125105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1509.744157922814</v>
+        <v>1099.525696360151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>553.6374476841551</v>
+        <v>605.6058476053653</v>
       </c>
       <c r="C4" t="n">
-        <v>475.9187744471702</v>
+        <v>605.6058476053653</v>
       </c>
       <c r="D4" t="n">
-        <v>475.9187744471702</v>
+        <v>455.4892081930295</v>
       </c>
       <c r="E4" t="n">
-        <v>475.9187744471702</v>
+        <v>307.5761146106363</v>
       </c>
       <c r="F4" t="n">
-        <v>475.9187744471702</v>
+        <v>160.686167112726</v>
       </c>
       <c r="G4" t="n">
-        <v>308.0832317263264</v>
+        <v>160.686167112726</v>
       </c>
       <c r="H4" t="n">
         <v>160.686167112726</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178316</v>
+        <v>59.36965571178318</v>
       </c>
       <c r="J4" t="n">
         <v>95.29667538946001</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778209</v>
+        <v>284.1726417778212</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386278</v>
+        <v>581.3952856386281</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945957</v>
+        <v>905.1640129945961</v>
       </c>
       <c r="N4" t="n">
         <v>1226.66886009458</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>1507.614327944345</v>
       </c>
       <c r="P4" t="n">
         <v>1724.491028290281</v>
@@ -4510,28 +4510,28 @@
         <v>1791.210133852897</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986302</v>
+        <v>1791.210133852897</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493184</v>
+        <v>1791.210133852897</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108942</v>
+        <v>1598.48963588976</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202816</v>
+        <v>1598.48963588976</v>
       </c>
       <c r="V4" t="n">
-        <v>735.2859125143948</v>
+        <v>1343.805147683873</v>
       </c>
       <c r="W4" t="n">
-        <v>735.2859125143948</v>
+        <v>1054.387977646913</v>
       </c>
       <c r="X4" t="n">
-        <v>735.2859125143948</v>
+        <v>826.3984267488954</v>
       </c>
       <c r="Y4" t="n">
-        <v>735.2859125143948</v>
+        <v>605.6058476053653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458.811090838974</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C5" t="n">
-        <v>1089.848573898563</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>731.5828752918121</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4601,16 +4601,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878908</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903096</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1772.103786713091</v>
       </c>
       <c r="T7" t="n">
-        <v>1505.059983974126</v>
+        <v>1550.337171282617</v>
       </c>
       <c r="U7" t="n">
-        <v>1215.957117099769</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="V7" t="n">
-        <v>1215.957117099769</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="W7" t="n">
-        <v>926.5399470628088</v>
+        <v>1261.234304408261</v>
       </c>
       <c r="X7" t="n">
-        <v>698.5503961647914</v>
+        <v>1033.244753510244</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.7578170212613</v>
+        <v>812.4521743667135</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C8" t="n">
-        <v>552.807938939214</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D8" t="n">
-        <v>530.5269660969217</v>
+        <v>920.7766538636581</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>534.9884012654138</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>124.0024964758063</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>112.9704503612068</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>724.9564054771553</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="C10" t="n">
-        <v>556.0202225492484</v>
+        <v>640.2517046783053</v>
       </c>
       <c r="D10" t="n">
-        <v>405.9035831369126</v>
+        <v>640.2517046783053</v>
       </c>
       <c r="E10" t="n">
-        <v>257.9904895545195</v>
+        <v>492.3386110959121</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>345.4486635980018</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>177.7458269727207</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X10" t="n">
-        <v>906.604870307395</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.604870307395</v>
+        <v>809.1878876062121</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>724.7519863413022</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5209,7 +5209,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279803</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854706</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>906.4004511715419</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.530292372933</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>853.5941094450259</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.37805728168</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1652.96088724472</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.971336346702</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.178757203172</v>
+        <v>878.3568999154063</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190824</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5683,25 +5683,25 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
         <v>1688.385853854707</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5899,46 +5899,46 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
         <v>1828.279732885522</v>
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,64 +6121,64 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189237</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
         <v>1491.508541327549</v>
@@ -6187,10 +6187,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L28" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
         <v>656.9646031150024</v>
@@ -6610,22 +6610,22 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,16 +6856,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580114</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311324</v>
@@ -7108,13 +7108,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7263,16 +7263,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7348,34 +7348,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,7 +7646,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.79828551875</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525721</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.96479968017156</v>
+        <v>9.872575263447089</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>308.1002209137329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>345.2451659769763</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>90.30533459401285</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.83943180792917</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>29.3170030768942</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>208.789401745218</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780336</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2233770574209</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>75.37549921168772</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>72.11969353038586</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194171</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.2291039219426</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>16230.45558071831</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225015</v>
@@ -26338,19 +26338,19 @@
         <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="L2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="L2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="M2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26366,19 +26366,19 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973048</v>
+        <v>95186.49343973043</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.309604032037948e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818042</v>
+        <v>213599.1454818043</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359964</v>
+        <v>22978.01038359955</v>
       </c>
       <c r="L3" t="n">
-        <v>4.730689503558148e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363171</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17443.36326662284</v>
+        <v>17443.36326662281</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181806</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181809</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26439,25 +26439,25 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="K4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="N4" t="n">
         <v>20377.7794449116</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491162</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.7794449116</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1330750.386878353</v>
+        <v>-1331179.945744942</v>
       </c>
       <c r="C6" t="n">
         <v>-274168.3447076861</v>
@@ -26528,22 +26528,22 @@
         <v>-178981.8512679556</v>
       </c>
       <c r="E6" t="n">
-        <v>-418743.2468208304</v>
+        <v>-418777.9847462662</v>
       </c>
       <c r="F6" t="n">
-        <v>-93330.78501347506</v>
+        <v>-93365.52293891076</v>
       </c>
       <c r="G6" t="n">
-        <v>-93330.78501347511</v>
+        <v>-93365.52293891081</v>
       </c>
       <c r="H6" t="n">
-        <v>-93330.78501347509</v>
+        <v>-93365.52293891078</v>
       </c>
       <c r="I6" t="n">
-        <v>-93330.78501347511</v>
+        <v>-93365.5229389108</v>
       </c>
       <c r="J6" t="n">
-        <v>-316614.9965340241</v>
+        <v>-316614.9965340242</v>
       </c>
       <c r="K6" t="n">
         <v>-125993.8614358195</v>
@@ -26558,7 +26558,7 @@
         <v>-103015.8510522199</v>
       </c>
       <c r="O6" t="n">
-        <v>-122443.5690458516</v>
+        <v>-122443.5690458517</v>
       </c>
       <c r="P6" t="n">
         <v>-103015.8510522199</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972895</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.137005040047435e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.913361879447685e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972895</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500312</v>
+        <v>89.28075900500301</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500312</v>
+        <v>89.28075900500301</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.137005040047435e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972895</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500312</v>
+        <v>89.28075900500301</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>141.3080901963943</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>53.58357207604456</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>125.0623242398417</v>
       </c>
       <c r="T7" t="n">
-        <v>80.23790880443556</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>332.6248785068136</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>290.1909435705132</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>121.8832668908468</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>130.986061889027</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="29">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31048,34 +31048,34 @@
         <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001372</v>
+        <v>346.9744857001373</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078536</v>
+        <v>520.0248102078538</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020665</v>
+        <v>645.1367608020666</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382371</v>
+        <v>717.8389509382373</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419355</v>
+        <v>729.4543356419357</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570168</v>
+        <v>688.8030442570169</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517191</v>
+        <v>587.8774622517193</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934012</v>
+        <v>441.4714913934013</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259355</v>
+        <v>256.8006720259356</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792797</v>
+        <v>93.158144807928</v>
       </c>
       <c r="T2" t="n">
         <v>17.89576649025582</v>
@@ -31124,43 +31124,43 @@
         <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.309719574672</v>
+        <v>75.30971957467202</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698101</v>
+        <v>206.6556266698102</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026368</v>
+        <v>353.2073816026369</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629474</v>
+        <v>474.9309130629475</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004841</v>
+        <v>554.2219745004842</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265572</v>
+        <v>568.8905810265574</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429593</v>
+        <v>520.4237398429594</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913464</v>
+        <v>417.6859325913465</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224527</v>
+        <v>279.2119845224528</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005168</v>
+        <v>135.8069287005169</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092174</v>
+        <v>40.62887419092175</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404271</v>
+        <v>8.816513667404273</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541503</v>
+        <v>0.1439039227541504</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.833792064823379</v>
+        <v>1.83379206482338</v>
       </c>
       <c r="H4" t="n">
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032492</v>
+        <v>55.14712864032493</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
@@ -31227,16 +31227,16 @@
         <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735286</v>
+        <v>153.5550791735287</v>
       </c>
       <c r="R4" t="n">
-        <v>82.4539595692403</v>
+        <v>82.45395956924031</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878561</v>
+        <v>31.95799443878562</v>
       </c>
       <c r="T4" t="n">
-        <v>7.83529336788171</v>
+        <v>7.835293367881712</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>338.6542681503479</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,10 +34366,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734509</v>
+        <v>165.928581173451</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628731</v>
+        <v>299.9349591628732</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320793</v>
+        <v>409.3703458320794</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109644</v>
+        <v>487.4927177109646</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453446</v>
+        <v>500.0412720453448</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353301</v>
+        <v>458.7048328353302</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964495</v>
+        <v>356.6444664964498</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189517</v>
+        <v>219.1658015189518</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180339</v>
+        <v>41.21513421180344</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314342</v>
+        <v>79.81800000314348</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282778</v>
+        <v>457.53545478085</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830732</v>
+        <v>336.3765332830733</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784657</v>
+        <v>412.0879405784659</v>
       </c>
       <c r="N3" t="n">
-        <v>437.548868943224</v>
+        <v>437.5488689432241</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985149</v>
+        <v>377.827495398515</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770161</v>
+        <v>283.7115251770163</v>
       </c>
       <c r="Q3" t="n">
-        <v>349.3074981722803</v>
+        <v>139.2302104364313</v>
       </c>
       <c r="R3" t="n">
-        <v>32.09222441672441</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634014</v>
+        <v>36.28991886634017</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326879</v>
+        <v>190.783804432688</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886939</v>
+        <v>300.224892788694</v>
       </c>
       <c r="M4" t="n">
         <v>327.0391185413818</v>
@@ -34875,7 +34875,7 @@
         <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183425</v>
+        <v>67.39303592183428</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,19 +35495,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980852</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
